--- a/Homework5Calcs.xlsx
+++ b/Homework5Calcs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">t=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.99 CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.95 CI</t>
   </si>
 </sst>
 </file>
@@ -183,13 +189,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.79"/>
@@ -331,6 +337,17 @@
         <f aca="false">(E$1-B8)^2</f>
         <v>0.000749664399999999</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <f aca="false">(0.0757)-(2.66*(0.146/SQRT(60)))</f>
+        <v>0.0255629395888963</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">(0.0757)+(2.66*(0.146/SQRT(60)))</f>
+        <v>0.125837060411104</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -342,6 +359,17 @@
       <c r="C9" s="0" t="n">
         <f aca="false">(E$1-B9)^2</f>
         <v>0.0013235044</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <f aca="false">(0.0757)-(2*(0.146/SQRT(60)))</f>
+        <v>0.0380029620969145</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="false">(0.0757)+(2*(0.146/SQRT(60)))</f>
+        <v>0.113397037903086</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
